--- a/Table_Processing/Filter_F.xlsx
+++ b/Table_Processing/Filter_F.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lea/ContrastiveDecodingNew/Table_Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D016B18-D5FE-1F44-B0E9-95CCD757B970}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197B077A-D75E-1C4D-8A18-6AA8C7E7704B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23080" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="500" windowWidth="23080" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Filter F" sheetId="1" r:id="rId1"/>
@@ -117,16 +117,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>294968</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>102419</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>254022</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152411</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>294990</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>70475</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -149,8 +149,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11912600" y="0"/>
-          <a:ext cx="12344422" cy="5842011"/>
+          <a:off x="11110452" y="286774"/>
+          <a:ext cx="12167441" cy="5314346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -529,7 +529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="Q70" sqref="Q70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
